--- a/REST_API.xlsx
+++ b/REST_API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yak\Documents\GitHub\PIC_server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87EBED26-6751-46A4-8417-B52BE4F1C26F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55573E4A-A201-478D-8797-7387308952A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{95ADF2BD-2365-4B7A-A6C4-A87E5B132682}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11145" xr2:uid="{95ADF2BD-2365-4B7A-A6C4-A87E5B132682}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -316,9 +316,6 @@
     <t>Updated Player</t>
   </si>
   <si>
-    <t>Updated score of the Player</t>
-  </si>
-  <si>
     <t>Update the current score of a particular Player</t>
   </si>
   <si>
@@ -332,11 +329,6 @@
   </si>
   <si>
     <t>/lobbies/{lobbyID}/score</t>
-  </si>
-  <si>
-    <t>&lt;long&gt; lobbyId, 
-&lt;long&gt; playerId,
-&lt;int&gt; points</t>
   </si>
   <si>
     <t>&lt;long&gt; lobbyId,
@@ -411,6 +403,13 @@
   </si>
   <si>
     <t>Player token (for authentication)</t>
+  </si>
+  <si>
+    <t>&lt;long&gt; lobbyId, 
+&lt;long&gt; playerId,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -782,6 +781,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -790,15 +823,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -806,59 +847,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1182,25 +1181,25 @@
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68:D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="24.46484375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="55.46484375" customWidth="1"/>
-    <col min="6" max="6" width="81.1328125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="81.140625" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.46484375" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
     <col min="13" max="13" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1229,21 +1228,21 @@
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="20">
         <v>200</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>64</v>
@@ -1260,10 +1259,10 @@
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="11">
         <v>401</v>
       </c>
@@ -1285,14 +1284,14 @@
       <c r="L3" s="7"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="20">
@@ -1304,7 +1303,7 @@
       <c r="F4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="17"/>
@@ -1318,10 +1317,10 @@
       <c r="L4" s="7"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="11">
         <v>401</v>
       </c>
@@ -1331,7 +1330,7 @@
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17">
@@ -1343,7 +1342,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1362,14 +1361,14 @@
       <c r="L6" s="7"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="20">
@@ -1381,7 +1380,7 @@
       <c r="F7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17">
@@ -1393,10 +1392,10 @@
       <c r="L7" s="7"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+    <row r="8" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="11">
         <v>409</v>
       </c>
@@ -1406,7 +1405,7 @@
       <c r="F8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="10">
@@ -1418,14 +1417,14 @@
       <c r="L8" s="7"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="18">
@@ -1437,17 +1436,17 @@
       <c r="F9" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+    <row r="10" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="11">
         <v>400</v>
       </c>
@@ -1457,19 +1456,19 @@
       <c r="F10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="30"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="20">
@@ -1481,7 +1480,7 @@
       <c r="F11" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="10">
@@ -1493,10 +1492,10 @@
       <c r="L11" s="7"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="11">
         <v>401</v>
       </c>
@@ -1506,7 +1505,7 @@
       <c r="F12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17">
@@ -1518,14 +1517,14 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="40" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="20">
@@ -1537,7 +1536,7 @@
       <c r="F13" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -1545,10 +1544,10 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+    <row r="14" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="11">
         <v>401</v>
       </c>
@@ -1558,7 +1557,7 @@
       <c r="F14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -1566,10 +1565,10 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="11">
         <v>404</v>
       </c>
@@ -1579,7 +1578,7 @@
       <c r="F15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -1587,12 +1586,12 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31" t="s">
+    <row r="16" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="40" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="20">
@@ -1604,7 +1603,7 @@
       <c r="F16" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -1612,10 +1611,10 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+    <row r="17" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="11">
         <v>401</v>
       </c>
@@ -1625,7 +1624,7 @@
       <c r="F17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -1633,10 +1632,10 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+    <row r="18" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="11">
         <v>403</v>
       </c>
@@ -1646,7 +1645,7 @@
       <c r="F18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -1654,10 +1653,10 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="11">
         <v>404</v>
       </c>
@@ -1667,7 +1666,7 @@
       <c r="F19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
@@ -1675,10 +1674,10 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+    <row r="20" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="11">
         <v>409</v>
       </c>
@@ -1688,7 +1687,7 @@
       <c r="F20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -1696,12 +1695,12 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="40" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="20">
@@ -1713,7 +1712,7 @@
       <c r="F21" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -1721,10 +1720,10 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="11">
         <v>401</v>
       </c>
@@ -1734,7 +1733,7 @@
       <c r="F22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="33"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -1742,10 +1741,10 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="11">
         <v>403</v>
       </c>
@@ -1755,7 +1754,7 @@
       <c r="F23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="33"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -1763,10 +1762,10 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="11">
         <v>404</v>
       </c>
@@ -1776,7 +1775,7 @@
       <c r="F24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="33"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -1784,10 +1783,10 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="11">
         <v>409</v>
       </c>
@@ -1797,7 +1796,7 @@
       <c r="F25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="35"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -1805,7 +1804,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1820,14 +1819,14 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="20">
@@ -1839,7 +1838,7 @@
       <c r="F27" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="17"/>
@@ -1849,10 +1848,10 @@
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="11">
         <v>401</v>
       </c>
@@ -1862,7 +1861,7 @@
       <c r="F28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="33"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
@@ -1870,24 +1869,24 @@
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="41">
         <v>201</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="33"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
@@ -1895,14 +1894,14 @@
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="33"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -1910,10 +1909,10 @@
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="28"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="11">
         <v>401</v>
       </c>
@@ -1923,7 +1922,7 @@
       <c r="F31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="33"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -1931,10 +1930,10 @@
       <c r="L31" s="17"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="29"/>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="11">
         <v>409</v>
       </c>
@@ -1944,7 +1943,7 @@
       <c r="F32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="33"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
@@ -1952,14 +1951,14 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33" s="31" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="40" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="20">
@@ -1971,7 +1970,7 @@
       <c r="F33" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="33"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
@@ -1979,10 +1978,10 @@
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="11">
         <v>401</v>
       </c>
@@ -1992,7 +1991,7 @@
       <c r="F34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="33"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -2000,10 +1999,10 @@
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="11">
         <v>403</v>
       </c>
@@ -2013,7 +2012,7 @@
       <c r="F35" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="33"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
@@ -2021,10 +2020,10 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="11">
         <v>404</v>
       </c>
@@ -2034,7 +2033,7 @@
       <c r="F36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="33"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -2042,14 +2041,14 @@
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="20">
@@ -2061,7 +2060,7 @@
       <c r="F37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="33"/>
+      <c r="G37" s="30"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
@@ -2069,10 +2068,10 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+    <row r="38" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="11">
         <v>401</v>
       </c>
@@ -2082,7 +2081,7 @@
       <c r="F38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="33"/>
+      <c r="G38" s="30"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -2090,10 +2089,10 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+    <row r="39" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="11">
         <v>403</v>
       </c>
@@ -2103,7 +2102,7 @@
       <c r="F39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
@@ -2111,10 +2110,10 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
+    <row r="40" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="11">
         <v>404</v>
       </c>
@@ -2124,7 +2123,7 @@
       <c r="F40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="33"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
@@ -2132,10 +2131,10 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
+    <row r="41" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="11">
         <v>409</v>
       </c>
@@ -2145,7 +2144,7 @@
       <c r="F41" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="33"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
@@ -2153,14 +2152,14 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="27" t="s">
+    <row r="42" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="20">
@@ -2172,7 +2171,7 @@
       <c r="F42" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="33"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
@@ -2180,10 +2179,10 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+    <row r="43" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="11">
         <v>401</v>
       </c>
@@ -2193,7 +2192,7 @@
       <c r="F43" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="33"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
@@ -2201,10 +2200,10 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+    <row r="44" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="11">
         <v>403</v>
       </c>
@@ -2214,7 +2213,7 @@
       <c r="F44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="33"/>
+      <c r="G44" s="30"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
@@ -2222,10 +2221,10 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
     </row>
-    <row r="45" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
+    <row r="45" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="11">
         <v>404</v>
       </c>
@@ -2235,7 +2234,7 @@
       <c r="F45" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="33"/>
+      <c r="G45" s="30"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
@@ -2243,10 +2242,10 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
+    <row r="46" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="11">
         <v>409</v>
       </c>
@@ -2256,7 +2255,7 @@
       <c r="F46" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="33"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -2264,14 +2263,14 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="27" t="s">
+    <row r="47" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="20">
@@ -2283,12 +2282,12 @@
       <c r="F47" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G47" s="33"/>
-    </row>
-    <row r="48" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
+      <c r="G47" s="30"/>
+    </row>
+    <row r="48" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="11">
         <v>401</v>
       </c>
@@ -2298,12 +2297,12 @@
       <c r="F48" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="33"/>
-    </row>
-    <row r="49" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+      <c r="G48" s="30"/>
+    </row>
+    <row r="49" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="11">
         <v>403</v>
       </c>
@@ -2313,12 +2312,12 @@
       <c r="F49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="33"/>
-    </row>
-    <row r="50" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+      <c r="G49" s="30"/>
+    </row>
+    <row r="50" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="11">
         <v>404</v>
       </c>
@@ -2328,12 +2327,12 @@
       <c r="F50" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G50" s="33"/>
-    </row>
-    <row r="51" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
+      <c r="G50" s="30"/>
+    </row>
+    <row r="51" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="11">
         <v>409</v>
       </c>
@@ -2343,16 +2342,16 @@
       <c r="F51" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G51" s="33"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A52" s="31" t="s">
+      <c r="G51" s="30"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="40" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="20">
@@ -2364,7 +2363,7 @@
       <c r="F52" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G52" s="33"/>
+      <c r="G52" s="30"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
@@ -2372,10 +2371,10 @@
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="11">
         <v>401</v>
       </c>
@@ -2385,7 +2384,7 @@
       <c r="F53" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="33"/>
+      <c r="G53" s="30"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
@@ -2393,10 +2392,10 @@
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="11">
         <v>403</v>
       </c>
@@ -2406,7 +2405,7 @@
       <c r="F54" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="33"/>
+      <c r="G54" s="30"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -2414,10 +2413,10 @@
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="11">
         <v>404</v>
       </c>
@@ -2427,7 +2426,7 @@
       <c r="F55" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="33"/>
+      <c r="G55" s="30"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
@@ -2435,14 +2434,14 @@
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A56" s="31" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="40" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="20">
@@ -2454,7 +2453,7 @@
       <c r="F56" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="33"/>
+      <c r="G56" s="30"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
@@ -2462,10 +2461,10 @@
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="11">
         <v>401</v>
       </c>
@@ -2475,7 +2474,7 @@
       <c r="F57" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="33"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -2483,10 +2482,10 @@
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="11">
         <v>403</v>
       </c>
@@ -2496,7 +2495,7 @@
       <c r="F58" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G58" s="33"/>
+      <c r="G58" s="30"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -2504,10 +2503,10 @@
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
     </row>
-    <row r="59" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
+    <row r="59" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
       <c r="D59" s="11">
         <v>404</v>
       </c>
@@ -2517,7 +2516,7 @@
       <c r="F59" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G59" s="33"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -2525,10 +2524,10 @@
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="11">
         <v>409</v>
       </c>
@@ -2538,7 +2537,7 @@
       <c r="F60" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G60" s="33"/>
+      <c r="G60" s="30"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -2546,14 +2545,14 @@
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A61" s="31" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="31" t="s">
         <v>90</v>
       </c>
       <c r="D61" s="20">
@@ -2565,7 +2564,7 @@
       <c r="F61" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="33"/>
+      <c r="G61" s="30"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
@@ -2573,10 +2572,10 @@
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="28"/>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="11">
         <v>401</v>
       </c>
@@ -2586,7 +2585,7 @@
       <c r="F62" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G62" s="33"/>
+      <c r="G62" s="30"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -2594,10 +2593,10 @@
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="28"/>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="11">
         <v>403</v>
       </c>
@@ -2607,7 +2606,7 @@
       <c r="F63" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G63" s="33"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
@@ -2615,10 +2614,10 @@
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="29"/>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="11">
         <v>404</v>
       </c>
@@ -2628,7 +2627,7 @@
       <c r="F64" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G64" s="33"/>
+      <c r="G64" s="30"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -2636,144 +2635,144 @@
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
     </row>
-    <row r="65" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="43"/>
-    </row>
-    <row r="66" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="27" t="s">
+      <c r="G65" s="28"/>
+    </row>
+    <row r="66" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D66" s="24">
         <v>200</v>
       </c>
       <c r="E66" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F66" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G66" s="44" t="s">
+      <c r="G66" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="42"/>
-    </row>
-    <row r="67" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
+      <c r="H66" s="27"/>
+    </row>
+    <row r="67" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="11">
         <v>401</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="39" t="s">
+      <c r="F67" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="42"/>
-    </row>
-    <row r="68" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B68" s="27" t="s">
+      <c r="G67" s="43"/>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68" s="25">
-        <v>200</v>
+      <c r="C68" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="34">
+        <v>204</v>
       </c>
       <c r="E68" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="F68" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" s="44"/>
-      <c r="H68" s="42"/>
-    </row>
-    <row r="69" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="26"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="35"/>
       <c r="E69" s="37"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="42"/>
-    </row>
-    <row r="70" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="27"/>
+    </row>
+    <row r="70" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="11">
         <v>401</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="39" t="s">
+      <c r="F70" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G70" s="44"/>
-      <c r="H70" s="42"/>
-    </row>
-    <row r="71" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="27"/>
+    </row>
+    <row r="71" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="11">
         <v>404</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="39" t="s">
+      <c r="F71" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G71" s="44"/>
-      <c r="H71" s="42"/>
-    </row>
-    <row r="72" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="31" t="s">
+      <c r="G71" s="43"/>
+      <c r="H71" s="27"/>
+    </row>
+    <row r="72" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="40" t="s">
         <v>36</v>
       </c>
       <c r="D72" s="24">
         <v>200</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G72" s="45"/>
-    </row>
-    <row r="73" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
+        <v>96</v>
+      </c>
+      <c r="G72" s="29"/>
+    </row>
+    <row r="73" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
       <c r="D73" s="11">
         <v>401</v>
       </c>
@@ -2783,40 +2782,40 @@
       <c r="F73" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G73" s="45"/>
-    </row>
-    <row r="74" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31" t="s">
+      <c r="G73" s="29"/>
+    </row>
+    <row r="74" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="40"/>
+      <c r="B74" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="30">
+      <c r="D74" s="41">
         <v>201</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G74" s="45"/>
-    </row>
-    <row r="75" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="30"/>
+        <v>114</v>
+      </c>
+      <c r="F74" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74" s="29"/>
+    </row>
+    <row r="75" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="37"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="45"/>
-    </row>
-    <row r="76" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="28"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="29"/>
+    </row>
+    <row r="76" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="33"/>
       <c r="D76" s="11">
         <v>401</v>
       </c>
@@ -2826,34 +2825,34 @@
       <c r="F76" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G76" s="45"/>
+      <c r="G76" s="29"/>
       <c r="M76" s="4"/>
     </row>
-    <row r="77" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="27" t="s">
+    <row r="77" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="27" t="s">
-        <v>100</v>
+      <c r="C77" s="31" t="s">
+        <v>98</v>
       </c>
       <c r="D77" s="24">
         <v>200</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G77" s="33"/>
-    </row>
-    <row r="78" spans="1:13" s="17" customFormat="1" ht="46.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="28"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
+        <v>99</v>
+      </c>
+      <c r="G77" s="30"/>
+    </row>
+    <row r="78" spans="1:13" s="17" customFormat="1" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="33"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
       <c r="D78" s="11">
         <v>401</v>
       </c>
@@ -2863,33 +2862,33 @@
       <c r="F78" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G78" s="33"/>
-    </row>
-    <row r="79" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B79" s="27" t="s">
+      <c r="G78" s="30"/>
+    </row>
+    <row r="79" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D79" s="24">
         <v>200</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G79" s="22"/>
     </row>
-    <row r="80" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="28"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
+    <row r="80" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="33"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
       <c r="D80" s="11">
         <v>401</v>
       </c>
@@ -2901,30 +2900,30 @@
       </c>
       <c r="G80" s="22"/>
     </row>
-    <row r="81" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B81" s="27" t="s">
+    <row r="81" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D81" s="24">
         <v>200</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="11">
         <v>401</v>
       </c>
@@ -2935,30 +2934,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B83" s="27" t="s">
+    <row r="83" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="27" t="s">
-        <v>121</v>
+      <c r="C83" s="31" t="s">
+        <v>119</v>
       </c>
       <c r="D83" s="24">
         <v>200</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="17" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="28"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="17" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="33"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
       <c r="D84" s="11">
         <v>401</v>
       </c>
@@ -2969,31 +2968,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="27" t="s">
+    <row r="85" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D85" s="24">
         <v>200</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G85" s="22"/>
     </row>
-    <row r="86" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="28"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
+    <row r="86" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
       <c r="D86" s="11">
         <v>401</v>
       </c>
@@ -3007,40 +3006,47 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="G66:G71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="G27:G64"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="A33:A36"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -3055,47 +3061,40 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="C16:C20"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="G27:G64"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A13:A25"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="G66:G71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3103,12 +3102,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5F5A699BFD1D1419D39E17C59E45605" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f7ca678cd5fea997ba82e1bc41045dc0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12a2378c-1d02-4851-bb92-de41e25dbaf7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10dde1b41fa082a74e6acedde999a307" ns2:_="">
     <xsd:import namespace="12a2378c-1d02-4851-bb92-de41e25dbaf7"/>
@@ -3266,6 +3259,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3276,22 +3275,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C0ADA0-4C9F-40C8-9166-93E9E88270E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="12a2378c-1d02-4851-bb92-de41e25dbaf7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC18AA6-1DC9-4BAC-B7C4-577F23A87C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3309,6 +3292,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C0ADA0-4C9F-40C8-9166-93E9E88270E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="12a2378c-1d02-4851-bb92-de41e25dbaf7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05BF717E-073B-40FB-BA23-09E66DA95B50}">
   <ds:schemaRefs>
